--- a/control/process_intermittent_check_30034001_TRY_None_75.xlsx
+++ b/control/process_intermittent_check_30034001_TRY_None_75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DIBS</t>
   </si>
   <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>Step done</t>
   </si>
   <si>
@@ -41,6 +44,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SA is done</t>
+  </si>
+  <si>
+    <t>Convergence time: 2399.7848410606384</t>
+  </si>
+  <si>
+    <t>Num samples: 64</t>
+  </si>
+  <si>
+    <t>SA Converged: 1</t>
+  </si>
+  <si>
+    <t>SA_Convergence_Required: Y</t>
   </si>
 </sst>
 </file>
@@ -398,82 +416,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4.55630350112915</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6.447101593017578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/control/process_intermittent_check_30034001_TRY_None_75.xlsx
+++ b/control/process_intermittent_check_30034001_TRY_None_75.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>DIBS</t>
-  </si>
-  <si>
-    <t>SA</t>
   </si>
   <si>
     <t>Step done</t>
@@ -32,33 +26,6 @@
   </si>
   <si>
     <t>Other info</t>
-  </si>
-  <si>
-    <t>DIBS simulation is working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncalibrated sim result, kWh: </t>
-  </si>
-  <si>
-    <t>[1644218.858311183, 1289861.3457441179, 1411546.3783614873, 1452659.379672987, 1196991.3288505413, 1289861.3457441179, 1324105.452268298, 1312490.4921606814]</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SA is done</t>
-  </si>
-  <si>
-    <t>Convergence time: 2399.7848410606384</t>
-  </si>
-  <si>
-    <t>Num samples: 64</t>
-  </si>
-  <si>
-    <t>SA Converged: 1</t>
-  </si>
-  <si>
-    <t>SA_Convergence_Required: Y</t>
   </si>
 </sst>
 </file>
@@ -416,109 +383,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4.55630350112915</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
